--- a/Test/Test/mydata/测试模板.xlsx
+++ b/Test/Test/mydata/测试模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zh871\Desktop\SoftwareTest\Test\Test\mydata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C53F78-5731-4D6E-9319-0616CB6DC98B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49224AEA-2914-4446-BD62-2D170DC86B4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3052" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3318" uniqueCount="316">
   <si>
     <t>编号</t>
   </si>
@@ -857,6 +857,154 @@
   </si>
   <si>
     <t>正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(10,0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(10,2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(10,3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(10,5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(10,8)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(100,0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(100,2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(100,3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(100,5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(100,8)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(140,0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(140,2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(140,3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(140,5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(140,8)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(230,0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(230,2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(230,3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(230,5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(230,8)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5000,0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5000,2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5000,3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5000,5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5000,8)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-1,0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0,0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(44640,5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(44640,7)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(45000,5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5000,-1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5000,12)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周贤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效的通话时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效的延时缴费次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhoneSystem</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -918,7 +1066,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -935,6 +1083,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1251,10 +1405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF497"/>
+  <dimension ref="A1:AF498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C289" workbookViewId="0">
-      <selection activeCell="J322" sqref="J322"/>
+    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="C317" sqref="C317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -19921,17 +20075,42 @@
       <c r="AF323" s="4"/>
     </row>
     <row r="324" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B324" s="1"/>
-      <c r="C324" s="1"/>
-      <c r="D324" s="1"/>
-      <c r="E324" s="1"/>
-      <c r="F324" s="1"/>
-      <c r="G324" s="1"/>
-      <c r="H324" s="1"/>
-      <c r="I324" s="1"/>
-      <c r="J324" s="1"/>
-      <c r="K324" s="1"/>
-      <c r="L324" s="1"/>
+      <c r="A324" s="5">
+        <v>323</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C324" s="6">
+        <v>44008</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G324" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H324" s="1">
+        <v>26.484999999999999</v>
+      </c>
+      <c r="I324" s="1">
+        <v>26.484999999999999</v>
+      </c>
+      <c r="J324" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K324" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L324" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="M324" s="1"/>
       <c r="N324" s="4"/>
       <c r="O324" s="4"/>
@@ -19954,17 +20133,42 @@
       <c r="AF324" s="4"/>
     </row>
     <row r="325" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B325" s="1"/>
-      <c r="C325" s="1"/>
-      <c r="D325" s="1"/>
-      <c r="E325" s="1"/>
-      <c r="F325" s="1"/>
-      <c r="G325" s="1"/>
-      <c r="H325" s="1"/>
-      <c r="I325" s="1"/>
-      <c r="J325" s="1"/>
-      <c r="K325" s="1"/>
-      <c r="L325" s="1"/>
+      <c r="A325" s="5">
+        <v>324</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C325" s="7">
+        <v>44008</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G325" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H325" s="1">
+        <v>26.477499999999999</v>
+      </c>
+      <c r="I325" s="1">
+        <v>26.477499999999999</v>
+      </c>
+      <c r="J325" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K325" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L325" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="M325" s="1"/>
       <c r="N325" s="4"/>
       <c r="O325" s="4"/>
@@ -19987,17 +20191,42 @@
       <c r="AF325" s="4"/>
     </row>
     <row r="326" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B326" s="1"/>
-      <c r="C326" s="1"/>
-      <c r="D326" s="1"/>
-      <c r="E326" s="1"/>
-      <c r="F326" s="1"/>
-      <c r="G326" s="1"/>
-      <c r="H326" s="1"/>
-      <c r="I326" s="1"/>
-      <c r="J326" s="1"/>
-      <c r="K326" s="1"/>
-      <c r="L326" s="1"/>
+      <c r="A326" s="5">
+        <v>325</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C326" s="7">
+        <v>44008</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G326" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H326" s="1">
+        <v>26.47</v>
+      </c>
+      <c r="I326" s="1">
+        <v>26.47</v>
+      </c>
+      <c r="J326" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K326" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L326" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="M326" s="1"/>
       <c r="N326" s="4"/>
       <c r="O326" s="4"/>
@@ -20020,17 +20249,42 @@
       <c r="AF326" s="4"/>
     </row>
     <row r="327" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B327" s="1"/>
-      <c r="C327" s="1"/>
-      <c r="D327" s="1"/>
-      <c r="E327" s="1"/>
-      <c r="F327" s="1"/>
-      <c r="G327" s="1"/>
-      <c r="H327" s="1"/>
-      <c r="I327" s="1"/>
-      <c r="J327" s="1"/>
-      <c r="K327" s="1"/>
-      <c r="L327" s="1"/>
+      <c r="A327" s="5">
+        <v>326</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C327" s="7">
+        <v>44008</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G327" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H327" s="1">
+        <v>26.454999999999998</v>
+      </c>
+      <c r="I327" s="1">
+        <v>26.454999999999998</v>
+      </c>
+      <c r="J327" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K327" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L327" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="M327" s="1"/>
       <c r="N327" s="4"/>
       <c r="O327" s="4"/>
@@ -20053,17 +20307,42 @@
       <c r="AF327" s="4"/>
     </row>
     <row r="328" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B328" s="1"/>
-      <c r="C328" s="1"/>
-      <c r="D328" s="1"/>
-      <c r="E328" s="1"/>
-      <c r="F328" s="1"/>
-      <c r="G328" s="1"/>
-      <c r="H328" s="1"/>
-      <c r="I328" s="1"/>
-      <c r="J328" s="1"/>
-      <c r="K328" s="1"/>
-      <c r="L328" s="1"/>
+      <c r="A328" s="5">
+        <v>327</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C328" s="7">
+        <v>44008</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G328" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H328" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="I328" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="J328" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K328" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L328" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="M328" s="1"/>
       <c r="N328" s="4"/>
       <c r="O328" s="4"/>
@@ -20086,17 +20365,42 @@
       <c r="AF328" s="4"/>
     </row>
     <row r="329" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B329" s="1"/>
-      <c r="C329" s="1"/>
-      <c r="D329" s="1"/>
-      <c r="E329" s="1"/>
-      <c r="F329" s="1"/>
-      <c r="G329" s="1"/>
-      <c r="H329" s="1"/>
-      <c r="I329" s="1"/>
-      <c r="J329" s="1"/>
-      <c r="K329" s="1"/>
-      <c r="L329" s="1"/>
+      <c r="A329" s="5">
+        <v>328</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C329" s="7">
+        <v>44008</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F329" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G329" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H329" s="1">
+        <v>39.755000000000003</v>
+      </c>
+      <c r="I329" s="1">
+        <v>39.755000000000003</v>
+      </c>
+      <c r="J329" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K329" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L329" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="M329" s="1"/>
       <c r="N329" s="4"/>
       <c r="O329" s="4"/>
@@ -20119,17 +20423,42 @@
       <c r="AF329" s="4"/>
     </row>
     <row r="330" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B330" s="1"/>
-      <c r="C330" s="1"/>
-      <c r="D330" s="1"/>
-      <c r="E330" s="1"/>
-      <c r="F330" s="1"/>
-      <c r="G330" s="1"/>
-      <c r="H330" s="1"/>
-      <c r="I330" s="1"/>
-      <c r="J330" s="1"/>
-      <c r="K330" s="1"/>
-      <c r="L330" s="1"/>
+      <c r="A330" s="5">
+        <v>329</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C330" s="7">
+        <v>44008</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F330" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G330" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H330" s="1">
+        <v>39.755000000000003</v>
+      </c>
+      <c r="I330" s="1">
+        <v>39.755000000000003</v>
+      </c>
+      <c r="J330" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K330" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L330" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="M330" s="1"/>
       <c r="N330" s="4"/>
       <c r="O330" s="4"/>
@@ -20152,17 +20481,42 @@
       <c r="AF330" s="4"/>
     </row>
     <row r="331" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B331" s="1"/>
-      <c r="C331" s="1"/>
-      <c r="D331" s="1"/>
-      <c r="E331" s="1"/>
-      <c r="F331" s="1"/>
-      <c r="G331" s="1"/>
-      <c r="H331" s="1"/>
-      <c r="I331" s="1"/>
-      <c r="J331" s="1"/>
-      <c r="K331" s="1"/>
-      <c r="L331" s="1"/>
+      <c r="A331" s="5">
+        <v>330</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C331" s="7">
+        <v>44008</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F331" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G331" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H331" s="1">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="I331" s="1">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="J331" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K331" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L331" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="M331" s="1"/>
       <c r="N331" s="4"/>
       <c r="O331" s="4"/>
@@ -20185,17 +20539,42 @@
       <c r="AF331" s="4"/>
     </row>
     <row r="332" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B332" s="1"/>
-      <c r="C332" s="1"/>
-      <c r="D332" s="1"/>
-      <c r="E332" s="1"/>
-      <c r="F332" s="1"/>
-      <c r="G332" s="1"/>
-      <c r="H332" s="1"/>
-      <c r="I332" s="1"/>
-      <c r="J332" s="1"/>
-      <c r="K332" s="1"/>
-      <c r="L332" s="1"/>
+      <c r="A332" s="5">
+        <v>331</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C332" s="7">
+        <v>44008</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F332" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G332" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H332" s="1">
+        <v>39.549999999999997</v>
+      </c>
+      <c r="I332" s="1">
+        <v>39.549999999999997</v>
+      </c>
+      <c r="J332" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K332" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L332" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="M332" s="1"/>
       <c r="N332" s="4"/>
       <c r="O332" s="4"/>
@@ -20218,17 +20597,42 @@
       <c r="AF332" s="4"/>
     </row>
     <row r="333" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B333" s="1"/>
-      <c r="C333" s="1"/>
-      <c r="D333" s="1"/>
-      <c r="E333" s="1"/>
-      <c r="F333" s="1"/>
-      <c r="G333" s="1"/>
-      <c r="H333" s="1"/>
-      <c r="I333" s="1"/>
-      <c r="J333" s="1"/>
-      <c r="K333" s="1"/>
-      <c r="L333" s="1"/>
+      <c r="A333" s="5">
+        <v>332</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C333" s="7">
+        <v>44008</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F333" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G333" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H333" s="1">
+        <v>40</v>
+      </c>
+      <c r="I333" s="1">
+        <v>40</v>
+      </c>
+      <c r="J333" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K333" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L333" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="M333" s="1"/>
       <c r="N333" s="4"/>
       <c r="O333" s="4"/>
@@ -20251,17 +20655,42 @@
       <c r="AF333" s="4"/>
     </row>
     <row r="334" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B334" s="1"/>
-      <c r="C334" s="1"/>
-      <c r="D334" s="1"/>
-      <c r="E334" s="1"/>
-      <c r="F334" s="1"/>
-      <c r="G334" s="1"/>
-      <c r="H334" s="1"/>
-      <c r="I334" s="1"/>
-      <c r="J334" s="1"/>
-      <c r="K334" s="1"/>
-      <c r="L334" s="1"/>
+      <c r="A334" s="5">
+        <v>333</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C334" s="7">
+        <v>44008</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F334" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G334" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H334" s="1">
+        <v>45.58</v>
+      </c>
+      <c r="I334" s="1">
+        <v>45.58</v>
+      </c>
+      <c r="J334" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K334" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L334" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="M334" s="1"/>
       <c r="N334" s="4"/>
       <c r="O334" s="4"/>
@@ -20284,17 +20713,42 @@
       <c r="AF334" s="4"/>
     </row>
     <row r="335" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B335" s="1"/>
-      <c r="C335" s="1"/>
-      <c r="D335" s="1"/>
-      <c r="E335" s="1"/>
-      <c r="F335" s="1"/>
-      <c r="G335" s="1"/>
-      <c r="H335" s="1"/>
-      <c r="I335" s="1"/>
-      <c r="J335" s="1"/>
-      <c r="K335" s="1"/>
-      <c r="L335" s="1"/>
+      <c r="A335" s="5">
+        <v>334</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C335" s="7">
+        <v>44008</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F335" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G335" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H335" s="1">
+        <v>45.58</v>
+      </c>
+      <c r="I335" s="1">
+        <v>45.58</v>
+      </c>
+      <c r="J335" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K335" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L335" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="M335" s="1"/>
       <c r="N335" s="4"/>
       <c r="O335" s="4"/>
@@ -20317,17 +20771,42 @@
       <c r="AF335" s="4"/>
     </row>
     <row r="336" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B336" s="1"/>
-      <c r="C336" s="1"/>
-      <c r="D336" s="1"/>
-      <c r="E336" s="1"/>
-      <c r="F336" s="1"/>
-      <c r="G336" s="1"/>
-      <c r="H336" s="1"/>
-      <c r="I336" s="1"/>
-      <c r="J336" s="1"/>
-      <c r="K336" s="1"/>
-      <c r="L336" s="1"/>
+      <c r="A336" s="5">
+        <v>335</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C336" s="7">
+        <v>44008</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G336" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H336" s="1">
+        <v>45.58</v>
+      </c>
+      <c r="I336" s="1">
+        <v>45.58</v>
+      </c>
+      <c r="J336" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K336" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L336" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="M336" s="1"/>
       <c r="N336" s="4"/>
       <c r="O336" s="4"/>
@@ -20349,18 +20828,43 @@
       <c r="AE336" s="4"/>
       <c r="AF336" s="4"/>
     </row>
-    <row r="337" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B337" s="1"/>
-      <c r="C337" s="1"/>
-      <c r="D337" s="1"/>
-      <c r="E337" s="1"/>
-      <c r="F337" s="1"/>
-      <c r="G337" s="1"/>
-      <c r="H337" s="1"/>
-      <c r="I337" s="1"/>
-      <c r="J337" s="1"/>
-      <c r="K337" s="1"/>
-      <c r="L337" s="1"/>
+    <row r="337" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A337" s="5">
+        <v>336</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C337" s="7">
+        <v>44008</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G337" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H337" s="1">
+        <v>45.37</v>
+      </c>
+      <c r="I337" s="1">
+        <v>45.37</v>
+      </c>
+      <c r="J337" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K337" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L337" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="M337" s="1"/>
       <c r="N337" s="4"/>
       <c r="O337" s="4"/>
@@ -20382,18 +20886,43 @@
       <c r="AE337" s="4"/>
       <c r="AF337" s="4"/>
     </row>
-    <row r="338" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B338" s="1"/>
-      <c r="C338" s="1"/>
-      <c r="D338" s="1"/>
-      <c r="E338" s="1"/>
-      <c r="F338" s="1"/>
-      <c r="G338" s="1"/>
-      <c r="H338" s="1"/>
-      <c r="I338" s="1"/>
-      <c r="J338" s="1"/>
-      <c r="K338" s="1"/>
-      <c r="L338" s="1"/>
+    <row r="338" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A338" s="5">
+        <v>337</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C338" s="7">
+        <v>44008</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G338" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H338" s="1">
+        <v>46</v>
+      </c>
+      <c r="I338" s="1">
+        <v>46</v>
+      </c>
+      <c r="J338" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K338" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L338" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="M338" s="1"/>
       <c r="N338" s="4"/>
       <c r="O338" s="4"/>
@@ -20415,18 +20944,43 @@
       <c r="AE338" s="4"/>
       <c r="AF338" s="4"/>
     </row>
-    <row r="339" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B339" s="1"/>
-      <c r="C339" s="1"/>
-      <c r="D339" s="1"/>
-      <c r="E339" s="1"/>
-      <c r="F339" s="1"/>
-      <c r="G339" s="1"/>
-      <c r="H339" s="1"/>
-      <c r="I339" s="1"/>
-      <c r="J339" s="1"/>
-      <c r="K339" s="1"/>
-      <c r="L339" s="1"/>
+    <row r="339" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A339" s="5">
+        <v>338</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C339" s="7">
+        <v>44008</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G339" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H339" s="1">
+        <v>58.64</v>
+      </c>
+      <c r="I339" s="1">
+        <v>58.64</v>
+      </c>
+      <c r="J339" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K339" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L339" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="M339" s="1"/>
       <c r="N339" s="4"/>
       <c r="O339" s="4"/>
@@ -20448,18 +21002,43 @@
       <c r="AE339" s="4"/>
       <c r="AF339" s="4"/>
     </row>
-    <row r="340" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B340" s="1"/>
-      <c r="C340" s="1"/>
-      <c r="D340" s="1"/>
-      <c r="E340" s="1"/>
-      <c r="F340" s="1"/>
-      <c r="G340" s="1"/>
-      <c r="H340" s="1"/>
-      <c r="I340" s="1"/>
-      <c r="J340" s="1"/>
-      <c r="K340" s="1"/>
-      <c r="L340" s="1"/>
+    <row r="340" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A340" s="5">
+        <v>339</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C340" s="7">
+        <v>44008</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G340" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H340" s="1">
+        <v>58.64</v>
+      </c>
+      <c r="I340" s="1">
+        <v>58.64</v>
+      </c>
+      <c r="J340" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K340" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L340" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="M340" s="1"/>
       <c r="N340" s="4"/>
       <c r="O340" s="4"/>
@@ -20481,18 +21060,43 @@
       <c r="AE340" s="4"/>
       <c r="AF340" s="4"/>
     </row>
-    <row r="341" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B341" s="1"/>
-      <c r="C341" s="1"/>
-      <c r="D341" s="1"/>
-      <c r="E341" s="1"/>
-      <c r="F341" s="1"/>
-      <c r="G341" s="1"/>
-      <c r="H341" s="1"/>
-      <c r="I341" s="1"/>
-      <c r="J341" s="1"/>
-      <c r="K341" s="1"/>
-      <c r="L341" s="1"/>
+    <row r="341" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A341" s="5">
+        <v>340</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C341" s="7">
+        <v>44008</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G341" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H341" s="1">
+        <v>58.64</v>
+      </c>
+      <c r="I341" s="1">
+        <v>58.64</v>
+      </c>
+      <c r="J341" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K341" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L341" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="M341" s="1"/>
       <c r="N341" s="4"/>
       <c r="O341" s="4"/>
@@ -20514,18 +21118,43 @@
       <c r="AE341" s="4"/>
       <c r="AF341" s="4"/>
     </row>
-    <row r="342" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B342" s="1"/>
-      <c r="C342" s="1"/>
-      <c r="D342" s="1"/>
-      <c r="E342" s="1"/>
-      <c r="F342" s="1"/>
-      <c r="G342" s="1"/>
-      <c r="H342" s="1"/>
-      <c r="I342" s="1"/>
-      <c r="J342" s="1"/>
-      <c r="K342" s="1"/>
-      <c r="L342" s="1"/>
+    <row r="342" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A342" s="5">
+        <v>341</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C342" s="7">
+        <v>44008</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G342" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H342" s="1">
+        <v>58.463999999999999</v>
+      </c>
+      <c r="I342" s="1">
+        <v>58.463999999999999</v>
+      </c>
+      <c r="J342" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K342" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L342" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="M342" s="1"/>
       <c r="N342" s="4"/>
       <c r="O342" s="4"/>
@@ -20547,18 +21176,43 @@
       <c r="AE342" s="4"/>
       <c r="AF342" s="4"/>
     </row>
-    <row r="343" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B343" s="1"/>
-      <c r="C343" s="1"/>
-      <c r="D343" s="1"/>
-      <c r="E343" s="1"/>
-      <c r="F343" s="1"/>
-      <c r="G343" s="1"/>
-      <c r="H343" s="1"/>
-      <c r="I343" s="1"/>
-      <c r="J343" s="1"/>
-      <c r="K343" s="1"/>
-      <c r="L343" s="1"/>
+    <row r="343" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A343" s="5">
+        <v>342</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C343" s="7">
+        <v>44008</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G343" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H343" s="1">
+        <v>59.5</v>
+      </c>
+      <c r="I343" s="1">
+        <v>59.5</v>
+      </c>
+      <c r="J343" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K343" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L343" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="M343" s="1"/>
       <c r="N343" s="4"/>
       <c r="O343" s="4"/>
@@ -20580,18 +21234,43 @@
       <c r="AE343" s="4"/>
       <c r="AF343" s="4"/>
     </row>
-    <row r="344" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B344" s="1"/>
-      <c r="C344" s="1"/>
-      <c r="D344" s="1"/>
-      <c r="E344" s="1"/>
-      <c r="F344" s="1"/>
-      <c r="G344" s="1"/>
-      <c r="H344" s="1"/>
-      <c r="I344" s="1"/>
-      <c r="J344" s="1"/>
-      <c r="K344" s="1"/>
-      <c r="L344" s="1"/>
+    <row r="344" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A344" s="5">
+        <v>343</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C344" s="7">
+        <v>44008</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G344" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H344" s="1">
+        <v>752.5</v>
+      </c>
+      <c r="I344" s="1">
+        <v>752.5</v>
+      </c>
+      <c r="J344" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K344" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L344" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="M344" s="1"/>
       <c r="N344" s="4"/>
       <c r="O344" s="4"/>
@@ -20613,18 +21292,43 @@
       <c r="AE344" s="4"/>
       <c r="AF344" s="4"/>
     </row>
-    <row r="345" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B345" s="1"/>
-      <c r="C345" s="1"/>
-      <c r="D345" s="1"/>
-      <c r="E345" s="1"/>
-      <c r="F345" s="1"/>
-      <c r="G345" s="1"/>
-      <c r="H345" s="1"/>
-      <c r="I345" s="1"/>
-      <c r="J345" s="1"/>
-      <c r="K345" s="1"/>
-      <c r="L345" s="1"/>
+    <row r="345" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A345" s="5">
+        <v>344</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C345" s="7">
+        <v>44008</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G345" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H345" s="1">
+        <v>752.5</v>
+      </c>
+      <c r="I345" s="1">
+        <v>752.5</v>
+      </c>
+      <c r="J345" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K345" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L345" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="M345" s="1"/>
       <c r="N345" s="4"/>
       <c r="O345" s="4"/>
@@ -20646,18 +21350,43 @@
       <c r="AE345" s="4"/>
       <c r="AF345" s="4"/>
     </row>
-    <row r="346" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B346" s="1"/>
-      <c r="C346" s="1"/>
-      <c r="D346" s="1"/>
-      <c r="E346" s="1"/>
-      <c r="F346" s="1"/>
-      <c r="G346" s="1"/>
-      <c r="H346" s="1"/>
-      <c r="I346" s="1"/>
-      <c r="J346" s="1"/>
-      <c r="K346" s="1"/>
-      <c r="L346" s="1"/>
+    <row r="346" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A346" s="5">
+        <v>345</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C346" s="7">
+        <v>44008</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G346" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H346" s="1">
+        <v>752.5</v>
+      </c>
+      <c r="I346" s="1">
+        <v>752.5</v>
+      </c>
+      <c r="J346" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K346" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L346" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="M346" s="1"/>
       <c r="N346" s="4"/>
       <c r="O346" s="4"/>
@@ -20679,18 +21408,43 @@
       <c r="AE346" s="4"/>
       <c r="AF346" s="4"/>
     </row>
-    <row r="347" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B347" s="1"/>
-      <c r="C347" s="1"/>
-      <c r="D347" s="1"/>
-      <c r="E347" s="1"/>
-      <c r="F347" s="1"/>
-      <c r="G347" s="1"/>
-      <c r="H347" s="1"/>
-      <c r="I347" s="1"/>
-      <c r="J347" s="1"/>
-      <c r="K347" s="1"/>
-      <c r="L347" s="1"/>
+    <row r="347" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A347" s="5">
+        <v>346</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C347" s="7">
+        <v>44008</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G347" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H347" s="1">
+        <v>752.5</v>
+      </c>
+      <c r="I347" s="1">
+        <v>752.5</v>
+      </c>
+      <c r="J347" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K347" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L347" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="M347" s="1"/>
       <c r="N347" s="4"/>
       <c r="O347" s="4"/>
@@ -20712,18 +21466,43 @@
       <c r="AE347" s="4"/>
       <c r="AF347" s="4"/>
     </row>
-    <row r="348" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B348" s="1"/>
-      <c r="C348" s="1"/>
-      <c r="D348" s="1"/>
-      <c r="E348" s="1"/>
-      <c r="F348" s="1"/>
-      <c r="G348" s="1"/>
-      <c r="H348" s="1"/>
-      <c r="I348" s="1"/>
-      <c r="J348" s="1"/>
-      <c r="K348" s="1"/>
-      <c r="L348" s="1"/>
+    <row r="348" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A348" s="5">
+        <v>347</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C348" s="7">
+        <v>44008</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G348" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H348" s="1">
+        <v>775</v>
+      </c>
+      <c r="I348" s="1">
+        <v>775</v>
+      </c>
+      <c r="J348" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K348" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L348" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="M348" s="1"/>
       <c r="N348" s="4"/>
       <c r="O348" s="4"/>
@@ -20745,18 +21524,43 @@
       <c r="AE348" s="4"/>
       <c r="AF348" s="4"/>
     </row>
-    <row r="349" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B349" s="1"/>
-      <c r="C349" s="1"/>
-      <c r="D349" s="1"/>
-      <c r="E349" s="1"/>
-      <c r="F349" s="1"/>
-      <c r="G349" s="1"/>
-      <c r="H349" s="1"/>
-      <c r="I349" s="1"/>
-      <c r="J349" s="1"/>
-      <c r="K349" s="1"/>
-      <c r="L349" s="1"/>
+    <row r="349" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A349" s="5">
+        <v>348</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C349" s="7">
+        <v>44008</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G349" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H349" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I349" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="J349" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K349" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L349" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="M349" s="1"/>
       <c r="N349" s="4"/>
       <c r="O349" s="4"/>
@@ -20778,18 +21582,43 @@
       <c r="AE349" s="4"/>
       <c r="AF349" s="4"/>
     </row>
-    <row r="350" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B350" s="1"/>
-      <c r="C350" s="1"/>
-      <c r="D350" s="1"/>
-      <c r="E350" s="1"/>
-      <c r="F350" s="1"/>
-      <c r="G350" s="1"/>
-      <c r="H350" s="1"/>
-      <c r="I350" s="1"/>
-      <c r="J350" s="1"/>
-      <c r="K350" s="1"/>
-      <c r="L350" s="1"/>
+    <row r="350" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A350" s="5">
+        <v>349</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C350" s="7">
+        <v>44008</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G350" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H350" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I350" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="J350" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K350" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L350" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="M350" s="1"/>
       <c r="N350" s="4"/>
       <c r="O350" s="4"/>
@@ -20811,18 +21640,43 @@
       <c r="AE350" s="4"/>
       <c r="AF350" s="4"/>
     </row>
-    <row r="351" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B351" s="1"/>
-      <c r="C351" s="1"/>
-      <c r="D351" s="1"/>
-      <c r="E351" s="1"/>
-      <c r="F351" s="1"/>
-      <c r="G351" s="1"/>
-      <c r="H351" s="1"/>
-      <c r="I351" s="1"/>
-      <c r="J351" s="1"/>
-      <c r="K351" s="1"/>
-      <c r="L351" s="1"/>
+    <row r="351" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A351" s="5">
+        <v>350</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C351" s="7">
+        <v>44008</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G351" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H351" s="1">
+        <v>6520.12</v>
+      </c>
+      <c r="I351" s="1">
+        <v>6520.12</v>
+      </c>
+      <c r="J351" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K351" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L351" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="M351" s="1"/>
       <c r="N351" s="4"/>
       <c r="O351" s="4"/>
@@ -20844,18 +21698,43 @@
       <c r="AE351" s="4"/>
       <c r="AF351" s="4"/>
     </row>
-    <row r="352" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B352" s="1"/>
-      <c r="C352" s="1"/>
-      <c r="D352" s="1"/>
-      <c r="E352" s="1"/>
-      <c r="F352" s="1"/>
-      <c r="G352" s="1"/>
-      <c r="H352" s="1"/>
-      <c r="I352" s="1"/>
-      <c r="J352" s="1"/>
-      <c r="K352" s="1"/>
-      <c r="L352" s="1"/>
+    <row r="352" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A352" s="5">
+        <v>351</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C352" s="7">
+        <v>44008</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G352" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H352" s="1">
+        <v>6721</v>
+      </c>
+      <c r="I352" s="1">
+        <v>6721</v>
+      </c>
+      <c r="J352" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K352" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L352" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="M352" s="1"/>
       <c r="N352" s="4"/>
       <c r="O352" s="4"/>
@@ -20877,18 +21756,43 @@
       <c r="AE352" s="4"/>
       <c r="AF352" s="4"/>
     </row>
-    <row r="353" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B353" s="1"/>
-      <c r="C353" s="1"/>
-      <c r="D353" s="1"/>
-      <c r="E353" s="1"/>
-      <c r="F353" s="1"/>
-      <c r="G353" s="1"/>
-      <c r="H353" s="1"/>
-      <c r="I353" s="1"/>
-      <c r="J353" s="1"/>
-      <c r="K353" s="1"/>
-      <c r="L353" s="1"/>
+    <row r="353" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A353" s="5">
+        <v>352</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C353" s="7">
+        <v>44008</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G353" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H353" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I353" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="J353" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K353" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L353" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="M353" s="1"/>
       <c r="N353" s="4"/>
       <c r="O353" s="4"/>
@@ -20910,18 +21814,43 @@
       <c r="AE353" s="4"/>
       <c r="AF353" s="4"/>
     </row>
-    <row r="354" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B354" s="1"/>
-      <c r="C354" s="1"/>
-      <c r="D354" s="1"/>
-      <c r="E354" s="1"/>
-      <c r="F354" s="1"/>
-      <c r="G354" s="1"/>
-      <c r="H354" s="1"/>
-      <c r="I354" s="1"/>
-      <c r="J354" s="1"/>
-      <c r="K354" s="1"/>
-      <c r="L354" s="1"/>
+    <row r="354" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A354" s="5">
+        <v>353</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C354" s="7">
+        <v>44008</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G354" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H354" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="I354" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J354" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K354" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L354" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="M354" s="1"/>
       <c r="N354" s="4"/>
       <c r="O354" s="4"/>
@@ -20943,18 +21872,43 @@
       <c r="AE354" s="4"/>
       <c r="AF354" s="4"/>
     </row>
-    <row r="355" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B355" s="1"/>
-      <c r="C355" s="1"/>
-      <c r="D355" s="1"/>
-      <c r="E355" s="1"/>
-      <c r="F355" s="1"/>
-      <c r="G355" s="1"/>
-      <c r="H355" s="1"/>
-      <c r="I355" s="1"/>
-      <c r="J355" s="1"/>
-      <c r="K355" s="1"/>
-      <c r="L355" s="1"/>
+    <row r="355" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A355" s="5">
+        <v>354</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C355" s="7">
+        <v>44008</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G355" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H355" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="I355" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J355" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K355" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L355" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="M355" s="1"/>
       <c r="N355" s="4"/>
       <c r="O355" s="4"/>
@@ -20976,7 +21930,7 @@
       <c r="AE355" s="4"/>
       <c r="AF355" s="4"/>
     </row>
-    <row r="356" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
@@ -21009,7 +21963,7 @@
       <c r="AE356" s="4"/>
       <c r="AF356" s="4"/>
     </row>
-    <row r="357" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
@@ -21042,7 +21996,7 @@
       <c r="AE357" s="4"/>
       <c r="AF357" s="4"/>
     </row>
-    <row r="358" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
@@ -21075,7 +22029,7 @@
       <c r="AE358" s="4"/>
       <c r="AF358" s="4"/>
     </row>
-    <row r="359" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
@@ -21108,7 +22062,7 @@
       <c r="AE359" s="4"/>
       <c r="AF359" s="4"/>
     </row>
-    <row r="360" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
@@ -21141,7 +22095,7 @@
       <c r="AE360" s="4"/>
       <c r="AF360" s="4"/>
     </row>
-    <row r="361" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
@@ -21174,7 +22128,7 @@
       <c r="AE361" s="4"/>
       <c r="AF361" s="4"/>
     </row>
-    <row r="362" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
@@ -21207,7 +22161,7 @@
       <c r="AE362" s="4"/>
       <c r="AF362" s="4"/>
     </row>
-    <row r="363" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
@@ -21240,7 +22194,7 @@
       <c r="AE363" s="4"/>
       <c r="AF363" s="4"/>
     </row>
-    <row r="364" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
@@ -21273,7 +22227,7 @@
       <c r="AE364" s="4"/>
       <c r="AF364" s="4"/>
     </row>
-    <row r="365" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
@@ -21306,7 +22260,7 @@
       <c r="AE365" s="4"/>
       <c r="AF365" s="4"/>
     </row>
-    <row r="366" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
@@ -21339,7 +22293,7 @@
       <c r="AE366" s="4"/>
       <c r="AF366" s="4"/>
     </row>
-    <row r="367" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
@@ -21372,7 +22326,7 @@
       <c r="AE367" s="4"/>
       <c r="AF367" s="4"/>
     </row>
-    <row r="368" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
@@ -25662,6 +26616,9 @@
       <c r="AE497" s="4"/>
       <c r="AF497" s="4"/>
     </row>
+    <row r="498" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="H498" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
